--- a/Jan'2021/Daily Sales Details/13.01.2021/BL Sales Info...xlsx
+++ b/Jan'2021/Daily Sales Details/13.01.2021/BL Sales Info...xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Sales" sheetId="46" r:id="rId1"/>
@@ -2837,13 +2837,21 @@
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2870,19 +2878,13 @@
     <xf numFmtId="0" fontId="28" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2939,6 +2941,57 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2961,57 +3014,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3038,8 +3040,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3615,11 +3615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="25" ySplit="8" topLeftCell="AA27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="25" ySplit="8" topLeftCell="AA9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AC35" sqref="AC35"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3671,160 +3671,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30.75">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="303" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="312"/>
-      <c r="S1" s="312"/>
-      <c r="T1" s="312"/>
-      <c r="U1" s="312"/>
-      <c r="V1" s="312"/>
-      <c r="W1" s="312"/>
-      <c r="X1" s="312"/>
-      <c r="Y1" s="312"/>
-      <c r="Z1" s="312"/>
-      <c r="AA1" s="312"/>
-      <c r="AB1" s="312"/>
-      <c r="AC1" s="312"/>
-      <c r="AD1" s="312"/>
-      <c r="AE1" s="312"/>
-      <c r="AF1" s="312"/>
-      <c r="AG1" s="312"/>
-      <c r="AH1" s="312"/>
-      <c r="AI1" s="312"/>
-      <c r="AJ1" s="312"/>
-      <c r="AK1" s="312"/>
-      <c r="AL1" s="312"/>
-      <c r="AM1" s="312"/>
-      <c r="AN1" s="312"/>
-      <c r="AO1" s="312"/>
-      <c r="AP1" s="312"/>
-      <c r="AQ1" s="312"/>
-      <c r="AR1" s="312"/>
-      <c r="AS1" s="312"/>
-      <c r="AT1" s="312"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
+      <c r="P1" s="303"/>
+      <c r="Q1" s="303"/>
+      <c r="R1" s="303"/>
+      <c r="S1" s="303"/>
+      <c r="T1" s="303"/>
+      <c r="U1" s="303"/>
+      <c r="V1" s="303"/>
+      <c r="W1" s="303"/>
+      <c r="X1" s="303"/>
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="303"/>
+      <c r="AA1" s="303"/>
+      <c r="AB1" s="303"/>
+      <c r="AC1" s="303"/>
+      <c r="AD1" s="303"/>
+      <c r="AE1" s="303"/>
+      <c r="AF1" s="303"/>
+      <c r="AG1" s="303"/>
+      <c r="AH1" s="303"/>
+      <c r="AI1" s="303"/>
+      <c r="AJ1" s="303"/>
+      <c r="AK1" s="303"/>
+      <c r="AL1" s="303"/>
+      <c r="AM1" s="303"/>
+      <c r="AN1" s="303"/>
+      <c r="AO1" s="303"/>
+      <c r="AP1" s="303"/>
+      <c r="AQ1" s="303"/>
+      <c r="AR1" s="303"/>
+      <c r="AS1" s="303"/>
+      <c r="AT1" s="303"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="304" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="313"/>
-      <c r="S2" s="313"/>
-      <c r="T2" s="313"/>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="313"/>
-      <c r="AC2" s="313"/>
-      <c r="AD2" s="313"/>
-      <c r="AE2" s="313"/>
-      <c r="AF2" s="313"/>
-      <c r="AG2" s="313"/>
-      <c r="AH2" s="313"/>
-      <c r="AI2" s="313"/>
-      <c r="AJ2" s="313"/>
-      <c r="AK2" s="313"/>
-      <c r="AL2" s="313"/>
-      <c r="AM2" s="313"/>
-      <c r="AN2" s="313"/>
-      <c r="AO2" s="313"/>
-      <c r="AP2" s="313"/>
-      <c r="AQ2" s="313"/>
-      <c r="AR2" s="313"/>
-      <c r="AS2" s="313"/>
-      <c r="AT2" s="313"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="304"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="304"/>
+      <c r="AA2" s="304"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="304"/>
+      <c r="AD2" s="304"/>
+      <c r="AE2" s="304"/>
+      <c r="AF2" s="304"/>
+      <c r="AG2" s="304"/>
+      <c r="AH2" s="304"/>
+      <c r="AI2" s="304"/>
+      <c r="AJ2" s="304"/>
+      <c r="AK2" s="304"/>
+      <c r="AL2" s="304"/>
+      <c r="AM2" s="304"/>
+      <c r="AN2" s="304"/>
+      <c r="AO2" s="304"/>
+      <c r="AP2" s="304"/>
+      <c r="AQ2" s="304"/>
+      <c r="AR2" s="304"/>
+      <c r="AS2" s="304"/>
+      <c r="AT2" s="304"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="305" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="316"/>
-      <c r="N3" s="316"/>
-      <c r="O3" s="316"/>
-      <c r="P3" s="316"/>
-      <c r="Q3" s="316"/>
-      <c r="R3" s="316"/>
-      <c r="S3" s="316"/>
-      <c r="T3" s="316"/>
-      <c r="U3" s="316"/>
-      <c r="V3" s="316"/>
-      <c r="W3" s="316"/>
-      <c r="X3" s="316"/>
-      <c r="Y3" s="316"/>
-      <c r="Z3" s="316"/>
-      <c r="AA3" s="316"/>
-      <c r="AB3" s="316"/>
-      <c r="AC3" s="316"/>
-      <c r="AD3" s="316"/>
-      <c r="AE3" s="316"/>
-      <c r="AF3" s="316"/>
-      <c r="AG3" s="316"/>
-      <c r="AH3" s="316"/>
-      <c r="AI3" s="316"/>
-      <c r="AJ3" s="316"/>
-      <c r="AK3" s="316"/>
-      <c r="AL3" s="316"/>
-      <c r="AM3" s="316"/>
-      <c r="AN3" s="316"/>
-      <c r="AO3" s="316"/>
-      <c r="AP3" s="316"/>
-      <c r="AQ3" s="316"/>
-      <c r="AR3" s="316"/>
-      <c r="AS3" s="316"/>
-      <c r="AT3" s="316"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="307"/>
+      <c r="L3" s="307"/>
+      <c r="M3" s="307"/>
+      <c r="N3" s="307"/>
+      <c r="O3" s="307"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="307"/>
+      <c r="S3" s="307"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="307"/>
+      <c r="W3" s="307"/>
+      <c r="X3" s="307"/>
+      <c r="Y3" s="307"/>
+      <c r="Z3" s="307"/>
+      <c r="AA3" s="307"/>
+      <c r="AB3" s="307"/>
+      <c r="AC3" s="307"/>
+      <c r="AD3" s="307"/>
+      <c r="AE3" s="307"/>
+      <c r="AF3" s="307"/>
+      <c r="AG3" s="307"/>
+      <c r="AH3" s="307"/>
+      <c r="AI3" s="307"/>
+      <c r="AJ3" s="307"/>
+      <c r="AK3" s="307"/>
+      <c r="AL3" s="307"/>
+      <c r="AM3" s="307"/>
+      <c r="AN3" s="307"/>
+      <c r="AO3" s="307"/>
+      <c r="AP3" s="307"/>
+      <c r="AQ3" s="307"/>
+      <c r="AR3" s="307"/>
+      <c r="AS3" s="307"/>
+      <c r="AT3" s="307"/>
     </row>
     <row r="4" spans="1:56">
-      <c r="A4" s="304" t="s">
+      <c r="A4" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="304"/>
+      <c r="B4" s="308"/>
       <c r="C4" s="151"/>
       <c r="D4" s="151">
         <v>1123485</v>
@@ -3853,10 +3853,10 @@
       <c r="L4" s="153">
         <v>0</v>
       </c>
-      <c r="M4" s="304">
+      <c r="M4" s="308">
         <v>550</v>
       </c>
-      <c r="N4" s="304"/>
+      <c r="N4" s="308"/>
       <c r="O4" s="153">
         <v>1270</v>
       </c>
@@ -3885,24 +3885,24 @@
         <v>284</v>
       </c>
       <c r="AB4" s="152"/>
-      <c r="AC4" s="305"/>
-      <c r="AD4" s="305"/>
-      <c r="AE4" s="305"/>
-      <c r="AF4" s="305"/>
-      <c r="AG4" s="305"/>
-      <c r="AH4" s="305"/>
-      <c r="AI4" s="305"/>
-      <c r="AJ4" s="305"/>
-      <c r="AK4" s="305"/>
-      <c r="AL4" s="305"/>
-      <c r="AM4" s="305"/>
-      <c r="AN4" s="305"/>
-      <c r="AO4" s="305"/>
-      <c r="AP4" s="305"/>
-      <c r="AQ4" s="305"/>
-      <c r="AR4" s="305"/>
-      <c r="AS4" s="305"/>
-      <c r="AT4" s="305"/>
+      <c r="AC4" s="309"/>
+      <c r="AD4" s="309"/>
+      <c r="AE4" s="309"/>
+      <c r="AF4" s="309"/>
+      <c r="AG4" s="309"/>
+      <c r="AH4" s="309"/>
+      <c r="AI4" s="309"/>
+      <c r="AJ4" s="309"/>
+      <c r="AK4" s="309"/>
+      <c r="AL4" s="309"/>
+      <c r="AM4" s="309"/>
+      <c r="AN4" s="309"/>
+      <c r="AO4" s="309"/>
+      <c r="AP4" s="309"/>
+      <c r="AQ4" s="309"/>
+      <c r="AR4" s="309"/>
+      <c r="AS4" s="309"/>
+      <c r="AT4" s="309"/>
       <c r="AV4" s="72"/>
       <c r="AW4" s="72"/>
       <c r="AX4" s="72"/>
@@ -3914,10 +3914,10 @@
       <c r="BD4" s="72"/>
     </row>
     <row r="5" spans="1:56">
-      <c r="A5" s="304" t="s">
+      <c r="A5" s="308" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="304"/>
+      <c r="B5" s="308"/>
       <c r="C5" s="151"/>
       <c r="D5" s="261"/>
       <c r="E5" s="261"/>
@@ -3944,24 +3944,24 @@
       <c r="Z5" s="261"/>
       <c r="AA5" s="261"/>
       <c r="AB5" s="261"/>
-      <c r="AC5" s="305"/>
-      <c r="AD5" s="305"/>
-      <c r="AE5" s="305"/>
-      <c r="AF5" s="305"/>
-      <c r="AG5" s="305"/>
-      <c r="AH5" s="305"/>
-      <c r="AI5" s="305"/>
-      <c r="AJ5" s="305"/>
-      <c r="AK5" s="305"/>
-      <c r="AL5" s="305"/>
-      <c r="AM5" s="305"/>
-      <c r="AN5" s="305"/>
-      <c r="AO5" s="305"/>
-      <c r="AP5" s="305"/>
-      <c r="AQ5" s="305"/>
-      <c r="AR5" s="305"/>
-      <c r="AS5" s="305"/>
-      <c r="AT5" s="305"/>
+      <c r="AC5" s="309"/>
+      <c r="AD5" s="309"/>
+      <c r="AE5" s="309"/>
+      <c r="AF5" s="309"/>
+      <c r="AG5" s="309"/>
+      <c r="AH5" s="309"/>
+      <c r="AI5" s="309"/>
+      <c r="AJ5" s="309"/>
+      <c r="AK5" s="309"/>
+      <c r="AL5" s="309"/>
+      <c r="AM5" s="309"/>
+      <c r="AN5" s="309"/>
+      <c r="AO5" s="309"/>
+      <c r="AP5" s="309"/>
+      <c r="AQ5" s="309"/>
+      <c r="AR5" s="309"/>
+      <c r="AS5" s="309"/>
+      <c r="AT5" s="309"/>
       <c r="AV5" s="72"/>
       <c r="AW5" s="72"/>
       <c r="AX5" s="72"/>
@@ -6439,11 +6439,11 @@
       <c r="BD28" s="72"/>
     </row>
     <row r="29" spans="1:56" s="233" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="306" t="s">
+      <c r="A29" s="310" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="307"/>
-      <c r="C29" s="307"/>
+      <c r="B29" s="311"/>
+      <c r="C29" s="311"/>
       <c r="D29" s="226">
         <f t="shared" ref="D29:AQ29" si="14">SUM(D7:D28)</f>
         <v>232787</v>
@@ -6628,11 +6628,11 @@
       <c r="BD29" s="232"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="309" t="s">
+      <c r="A30" s="313" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="310"/>
-      <c r="C30" s="311"/>
+      <c r="B30" s="314"/>
+      <c r="C30" s="315"/>
       <c r="D30" s="235">
         <f t="shared" ref="D30:AB30" si="16">D4+D5-D29</f>
         <v>890698</v>
@@ -6851,11 +6851,11 @@
       <c r="Q32" s="72"/>
       <c r="R32" s="72"/>
       <c r="S32" s="72"/>
-      <c r="AR32" s="308" t="s">
+      <c r="AR32" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="AS32" s="308"/>
-      <c r="AT32" s="308"/>
+      <c r="AS32" s="312"/>
+      <c r="AT32" s="312"/>
       <c r="AU32" s="245"/>
     </row>
     <row r="33" spans="1:48" ht="15.75">
@@ -6889,14 +6889,14 @@
       <c r="A34" s="72"/>
       <c r="B34" s="72"/>
       <c r="C34" s="57"/>
-      <c r="D34" s="303"/>
-      <c r="E34" s="303"/>
-      <c r="F34" s="303"/>
-      <c r="G34" s="303"/>
-      <c r="H34" s="303"/>
-      <c r="I34" s="303"/>
-      <c r="J34" s="303"/>
-      <c r="K34" s="303"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="318"/>
+      <c r="F34" s="318"/>
+      <c r="G34" s="318"/>
+      <c r="H34" s="318"/>
+      <c r="I34" s="318"/>
+      <c r="J34" s="318"/>
+      <c r="K34" s="318"/>
       <c r="L34" s="251"/>
       <c r="M34" s="253"/>
       <c r="N34" s="192"/>
@@ -6918,14 +6918,14 @@
       <c r="A35" s="72"/>
       <c r="B35" s="72"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="301"/>
-      <c r="G35" s="301"/>
-      <c r="H35" s="301"/>
-      <c r="I35" s="301"/>
-      <c r="J35" s="301"/>
-      <c r="K35" s="301"/>
+      <c r="D35" s="316"/>
+      <c r="E35" s="316"/>
+      <c r="F35" s="316"/>
+      <c r="G35" s="316"/>
+      <c r="H35" s="316"/>
+      <c r="I35" s="316"/>
+      <c r="J35" s="316"/>
+      <c r="K35" s="316"/>
       <c r="L35" s="252"/>
       <c r="M35" s="253"/>
       <c r="O35" s="72"/>
@@ -6944,14 +6944,14 @@
       <c r="A36" s="72"/>
       <c r="B36" s="72"/>
       <c r="C36" s="57"/>
-      <c r="D36" s="301"/>
-      <c r="E36" s="301"/>
-      <c r="F36" s="301"/>
-      <c r="G36" s="301"/>
-      <c r="H36" s="301"/>
-      <c r="I36" s="301"/>
-      <c r="J36" s="301"/>
-      <c r="K36" s="301"/>
+      <c r="D36" s="316"/>
+      <c r="E36" s="316"/>
+      <c r="F36" s="316"/>
+      <c r="G36" s="316"/>
+      <c r="H36" s="316"/>
+      <c r="I36" s="316"/>
+      <c r="J36" s="316"/>
+      <c r="K36" s="316"/>
       <c r="L36" s="252"/>
       <c r="M36" s="253"/>
       <c r="O36" s="72"/>
@@ -6970,14 +6970,14 @@
       <c r="A37" s="72"/>
       <c r="B37" s="72"/>
       <c r="C37" s="57"/>
-      <c r="D37" s="301"/>
-      <c r="E37" s="301"/>
-      <c r="F37" s="301"/>
-      <c r="G37" s="301"/>
-      <c r="H37" s="301"/>
-      <c r="I37" s="301"/>
-      <c r="J37" s="301"/>
-      <c r="K37" s="301"/>
+      <c r="D37" s="316"/>
+      <c r="E37" s="316"/>
+      <c r="F37" s="316"/>
+      <c r="G37" s="316"/>
+      <c r="H37" s="316"/>
+      <c r="I37" s="316"/>
+      <c r="J37" s="316"/>
+      <c r="K37" s="316"/>
       <c r="L37" s="254"/>
       <c r="M37" s="253"/>
       <c r="O37" s="244"/>
@@ -6993,14 +6993,14 @@
       <c r="A38" s="248"/>
       <c r="B38" s="248"/>
       <c r="C38" s="57"/>
-      <c r="D38" s="301"/>
-      <c r="E38" s="301"/>
-      <c r="F38" s="301"/>
-      <c r="G38" s="301"/>
-      <c r="H38" s="301"/>
-      <c r="I38" s="301"/>
-      <c r="J38" s="301"/>
-      <c r="K38" s="301"/>
+      <c r="D38" s="316"/>
+      <c r="E38" s="316"/>
+      <c r="F38" s="316"/>
+      <c r="G38" s="316"/>
+      <c r="H38" s="316"/>
+      <c r="I38" s="316"/>
+      <c r="J38" s="316"/>
+      <c r="K38" s="316"/>
       <c r="L38" s="252"/>
       <c r="M38" s="252"/>
       <c r="AR38" s="48">
@@ -7015,14 +7015,14 @@
       <c r="A39" s="72"/>
       <c r="B39" s="72"/>
       <c r="C39" s="57"/>
-      <c r="D39" s="301"/>
-      <c r="E39" s="301"/>
-      <c r="F39" s="301"/>
-      <c r="G39" s="301"/>
-      <c r="H39" s="301"/>
-      <c r="I39" s="301"/>
-      <c r="J39" s="301"/>
-      <c r="K39" s="301"/>
+      <c r="D39" s="316"/>
+      <c r="E39" s="316"/>
+      <c r="F39" s="316"/>
+      <c r="G39" s="316"/>
+      <c r="H39" s="316"/>
+      <c r="I39" s="316"/>
+      <c r="J39" s="316"/>
+      <c r="K39" s="316"/>
       <c r="L39" s="254"/>
       <c r="M39" s="253"/>
       <c r="AR39" s="197">
@@ -7037,14 +7037,14 @@
       <c r="A40" s="72"/>
       <c r="B40" s="72"/>
       <c r="C40" s="57"/>
-      <c r="D40" s="302"/>
-      <c r="E40" s="302"/>
-      <c r="F40" s="302"/>
-      <c r="G40" s="302"/>
-      <c r="H40" s="302"/>
-      <c r="I40" s="302"/>
-      <c r="J40" s="302"/>
-      <c r="K40" s="302"/>
+      <c r="D40" s="317"/>
+      <c r="E40" s="317"/>
+      <c r="F40" s="317"/>
+      <c r="G40" s="317"/>
+      <c r="H40" s="317"/>
+      <c r="I40" s="317"/>
+      <c r="J40" s="317"/>
+      <c r="K40" s="317"/>
       <c r="L40" s="255"/>
       <c r="M40" s="256"/>
       <c r="AO40" s="249"/>
@@ -7814,6 +7814,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="AC5:AT5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="AR32:AT32"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:AT1"/>
     <mergeCell ref="A2:AT2"/>
     <mergeCell ref="A3:B3"/>
@@ -7821,18 +7833,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="AC4:AT4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="AC5:AT5"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="AR32:AT32"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="greaterThan">
@@ -7974,12 +7974,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27" thickBot="1">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="319" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="319"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="321"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -7994,12 +7994,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" thickBot="1">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="322" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="322"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="324"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -9995,25 +9995,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="328" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="328"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="330"/>
       <c r="G1" s="22"/>
       <c r="H1" s="265"/>
       <c r="I1" s="265"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="329" t="s">
+      <c r="A2" s="331" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="330"/>
-      <c r="C2" s="330"/>
-      <c r="D2" s="330"/>
-      <c r="E2" s="331"/>
+      <c r="B2" s="332"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="333"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -10038,11 +10038,11 @@
       <c r="D4" s="19"/>
       <c r="E4" s="94"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="332" t="s">
+      <c r="J4" s="334" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="333"/>
-      <c r="L4" s="334"/>
+      <c r="K4" s="335"/>
+      <c r="L4" s="336"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="95" t="s">
@@ -10283,11 +10283,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="323"/>
-      <c r="B17" s="324"/>
-      <c r="C17" s="324"/>
-      <c r="D17" s="324"/>
-      <c r="E17" s="325"/>
+      <c r="A17" s="325"/>
+      <c r="B17" s="326"/>
+      <c r="C17" s="326"/>
+      <c r="D17" s="326"/>
+      <c r="E17" s="327"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:9">
@@ -10413,70 +10413,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="337" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
-      <c r="N1" s="345"/>
-      <c r="O1" s="345"/>
-      <c r="P1" s="345"/>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="345"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="G1" s="337"/>
+      <c r="H1" s="337"/>
+      <c r="I1" s="337"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="L1" s="337"/>
+      <c r="M1" s="337"/>
+      <c r="N1" s="337"/>
+      <c r="O1" s="337"/>
+      <c r="P1" s="337"/>
+      <c r="Q1" s="337"/>
+      <c r="R1" s="337"/>
     </row>
     <row r="2" spans="1:25" ht="18">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="338" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
+      <c r="B2" s="338"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338"/>
+      <c r="I2" s="338"/>
+      <c r="J2" s="338"/>
+      <c r="K2" s="338"/>
+      <c r="L2" s="338"/>
+      <c r="M2" s="338"/>
+      <c r="N2" s="338"/>
+      <c r="O2" s="338"/>
+      <c r="P2" s="338"/>
+      <c r="Q2" s="338"/>
+      <c r="R2" s="338"/>
     </row>
     <row r="3" spans="1:25" s="108" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="355" t="s">
+      <c r="A3" s="349" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="356"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
-      <c r="I3" s="356"/>
-      <c r="J3" s="356"/>
-      <c r="K3" s="356"/>
-      <c r="L3" s="356"/>
-      <c r="M3" s="356"/>
-      <c r="N3" s="356"/>
-      <c r="O3" s="356"/>
-      <c r="P3" s="356"/>
-      <c r="Q3" s="356"/>
-      <c r="R3" s="357"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="350"/>
+      <c r="K3" s="350"/>
+      <c r="L3" s="350"/>
+      <c r="M3" s="350"/>
+      <c r="N3" s="350"/>
+      <c r="O3" s="350"/>
+      <c r="P3" s="350"/>
+      <c r="Q3" s="350"/>
+      <c r="R3" s="351"/>
       <c r="T3" s="109"/>
       <c r="U3" s="110"/>
       <c r="V3" s="110"/>
@@ -10485,13 +10485,13 @@
       <c r="Y3" s="111"/>
     </row>
     <row r="4" spans="1:25" s="111" customFormat="1">
-      <c r="A4" s="347" t="s">
+      <c r="A4" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="349" t="s">
+      <c r="B4" s="341" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="349" t="s">
+      <c r="C4" s="341" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="343" t="s">
@@ -10515,25 +10515,25 @@
       <c r="J4" s="343" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="358" t="s">
+      <c r="K4" s="352" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="335" t="s">
+      <c r="L4" s="354" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="337" t="s">
+      <c r="M4" s="356" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="339" t="s">
+      <c r="N4" s="358" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="341" t="s">
+      <c r="O4" s="360" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="351" t="s">
+      <c r="P4" s="345" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="353" t="s">
+      <c r="Q4" s="347" t="s">
         <v>41</v>
       </c>
       <c r="R4" s="112" t="s">
@@ -10546,9 +10546,9 @@
       <c r="X4" s="110"/>
     </row>
     <row r="5" spans="1:25" s="111" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="348"/>
-      <c r="B5" s="350"/>
-      <c r="C5" s="350"/>
+      <c r="A5" s="340"/>
+      <c r="B5" s="342"/>
+      <c r="C5" s="342"/>
       <c r="D5" s="344"/>
       <c r="E5" s="344"/>
       <c r="F5" s="344"/>
@@ -10556,13 +10556,13 @@
       <c r="H5" s="344"/>
       <c r="I5" s="344"/>
       <c r="J5" s="344"/>
-      <c r="K5" s="359"/>
-      <c r="L5" s="336"/>
-      <c r="M5" s="338"/>
-      <c r="N5" s="340"/>
-      <c r="O5" s="342"/>
-      <c r="P5" s="352"/>
-      <c r="Q5" s="354"/>
+      <c r="K5" s="353"/>
+      <c r="L5" s="355"/>
+      <c r="M5" s="357"/>
+      <c r="N5" s="359"/>
+      <c r="O5" s="361"/>
+      <c r="P5" s="346"/>
+      <c r="Q5" s="348"/>
       <c r="R5" s="114" t="s">
         <v>43</v>
       </c>
@@ -13526,6 +13526,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -13542,10 +13546,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13581,108 +13581,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="365" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="363"/>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="363"/>
-      <c r="F1" s="363"/>
-      <c r="G1" s="363"/>
-      <c r="H1" s="363"/>
-      <c r="I1" s="363"/>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
-      <c r="L1" s="363"/>
-      <c r="M1" s="363"/>
-      <c r="N1" s="363"/>
-      <c r="O1" s="363"/>
-      <c r="P1" s="363"/>
-      <c r="Q1" s="363"/>
+      <c r="B1" s="365"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="365"/>
+      <c r="N1" s="365"/>
+      <c r="O1" s="365"/>
+      <c r="P1" s="365"/>
+      <c r="Q1" s="365"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="363"/>
-      <c r="B2" s="363"/>
-      <c r="C2" s="363"/>
-      <c r="D2" s="363"/>
-      <c r="E2" s="363"/>
-      <c r="F2" s="363"/>
-      <c r="G2" s="363"/>
-      <c r="H2" s="363"/>
-      <c r="I2" s="363"/>
-      <c r="J2" s="363"/>
-      <c r="K2" s="363"/>
-      <c r="L2" s="363"/>
-      <c r="M2" s="363"/>
-      <c r="N2" s="363"/>
-      <c r="O2" s="363"/>
-      <c r="P2" s="363"/>
-      <c r="Q2" s="363"/>
+      <c r="A2" s="365"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="365"/>
+      <c r="N2" s="365"/>
+      <c r="O2" s="365"/>
+      <c r="P2" s="365"/>
+      <c r="Q2" s="365"/>
     </row>
     <row r="3" spans="1:17" s="247" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="364" t="s">
+      <c r="A3" s="366" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="364"/>
-      <c r="F3" s="364"/>
-      <c r="G3" s="364"/>
-      <c r="H3" s="364"/>
-      <c r="I3" s="364"/>
-      <c r="J3" s="364"/>
-      <c r="K3" s="364"/>
-      <c r="L3" s="364"/>
-      <c r="M3" s="364"/>
-      <c r="N3" s="364"/>
-      <c r="O3" s="364"/>
-      <c r="P3" s="364"/>
-      <c r="Q3" s="364"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="366"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="366"/>
+      <c r="L3" s="366"/>
+      <c r="M3" s="366"/>
+      <c r="N3" s="366"/>
+      <c r="O3" s="366"/>
+      <c r="P3" s="366"/>
+      <c r="Q3" s="366"/>
     </row>
     <row r="4" spans="1:17" s="247" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="316" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
-      <c r="O4" s="301"/>
-      <c r="P4" s="301"/>
-      <c r="Q4" s="301"/>
+      <c r="B4" s="316"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="316"/>
+      <c r="E4" s="316"/>
+      <c r="F4" s="316"/>
+      <c r="G4" s="316"/>
+      <c r="H4" s="316"/>
+      <c r="I4" s="316"/>
+      <c r="J4" s="316"/>
+      <c r="K4" s="316"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="316"/>
+      <c r="N4" s="316"/>
+      <c r="O4" s="316"/>
+      <c r="P4" s="316"/>
+      <c r="Q4" s="316"/>
     </row>
     <row r="5" spans="1:17" s="247" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="365" t="s">
+      <c r="A5" s="367" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="366"/>
-      <c r="C5" s="365" t="s">
+      <c r="B5" s="368"/>
+      <c r="C5" s="367" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="367"/>
-      <c r="E5" s="367"/>
-      <c r="F5" s="367"/>
-      <c r="G5" s="367"/>
-      <c r="H5" s="367"/>
-      <c r="I5" s="367"/>
-      <c r="J5" s="367"/>
-      <c r="K5" s="367"/>
-      <c r="L5" s="367"/>
-      <c r="M5" s="367"/>
-      <c r="N5" s="367"/>
-      <c r="O5" s="367"/>
-      <c r="P5" s="366"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="369"/>
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
+      <c r="I5" s="369"/>
+      <c r="J5" s="369"/>
+      <c r="K5" s="369"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="369"/>
+      <c r="O5" s="369"/>
+      <c r="P5" s="368"/>
       <c r="Q5" s="268"/>
     </row>
     <row r="6" spans="1:17" s="177" customFormat="1" ht="18" customHeight="1">
@@ -14264,11 +14264,11 @@
       <c r="Q27" s="277"/>
     </row>
     <row r="28" spans="1:17" s="233" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="360" t="s">
+      <c r="A28" s="362" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="361"/>
-      <c r="C28" s="362"/>
+      <c r="B28" s="363"/>
+      <c r="C28" s="364"/>
       <c r="D28" s="281">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -14988,7 +14988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -15005,8 +15005,8 @@
         <v>185</v>
       </c>
       <c r="C1" s="370"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="369"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="302"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="283" t="s">
